--- a/AAII_Financials/Yearly/SSEZY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SSEZY_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -712,16 +712,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>15829500</v>
+        <v>15496000</v>
       </c>
       <c r="E8" s="3">
-        <v>10909200</v>
+        <v>10679300</v>
       </c>
       <c r="F8" s="3">
-        <v>8651100</v>
+        <v>8468800</v>
       </c>
       <c r="G8" s="3">
-        <v>8618400</v>
+        <v>8436800</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -739,16 +739,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>16031900</v>
+        <v>15694100</v>
       </c>
       <c r="E9" s="3">
-        <v>5339100</v>
+        <v>5226600</v>
       </c>
       <c r="F9" s="3">
-        <v>5239100</v>
+        <v>5128800</v>
       </c>
       <c r="G9" s="3">
-        <v>6063100</v>
+        <v>5935400</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -766,16 +766,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-202400</v>
+        <v>-198100</v>
       </c>
       <c r="E10" s="3">
-        <v>5570000</v>
+        <v>5452700</v>
       </c>
       <c r="F10" s="3">
-        <v>3412000</v>
+        <v>3340100</v>
       </c>
       <c r="G10" s="3">
-        <v>2555300</v>
+        <v>2501400</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -860,16 +860,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>165400</v>
+        <v>161900</v>
       </c>
       <c r="E14" s="3">
-        <v>-344500</v>
+        <v>-337200</v>
       </c>
       <c r="F14" s="3">
-        <v>-1039400</v>
+        <v>-1017500</v>
       </c>
       <c r="G14" s="3">
-        <v>266500</v>
+        <v>260900</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -924,16 +924,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16014600</v>
+        <v>15677200</v>
       </c>
       <c r="E17" s="3">
-        <v>6145900</v>
+        <v>6016400</v>
       </c>
       <c r="F17" s="3">
-        <v>5284800</v>
+        <v>5173400</v>
       </c>
       <c r="G17" s="3">
-        <v>7394400</v>
+        <v>7238700</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -951,16 +951,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-185200</v>
+        <v>-181300</v>
       </c>
       <c r="E18" s="3">
-        <v>4763300</v>
+        <v>4662900</v>
       </c>
       <c r="F18" s="3">
-        <v>3366300</v>
+        <v>3295400</v>
       </c>
       <c r="G18" s="3">
-        <v>1224000</v>
+        <v>1198200</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -991,16 +991,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>399300</v>
+        <v>390900</v>
       </c>
       <c r="E20" s="3">
-        <v>101000</v>
+        <v>98900</v>
       </c>
       <c r="F20" s="3">
-        <v>164700</v>
+        <v>161300</v>
       </c>
       <c r="G20" s="3">
-        <v>-16500</v>
+        <v>-16100</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1018,13 +1018,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1026100</v>
+        <v>1005300</v>
       </c>
       <c r="E21" s="3">
-        <v>5248500</v>
+        <v>5138300</v>
       </c>
       <c r="F21" s="3">
-        <v>4339500</v>
+        <v>4248800</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1045,16 +1045,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>474700</v>
+        <v>464700</v>
       </c>
       <c r="E22" s="3">
-        <v>451300</v>
+        <v>441800</v>
       </c>
       <c r="F22" s="3">
-        <v>466700</v>
+        <v>456900</v>
       </c>
       <c r="G22" s="3">
-        <v>462800</v>
+        <v>453100</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1072,16 +1072,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-260600</v>
+        <v>-255100</v>
       </c>
       <c r="E23" s="3">
-        <v>4413000</v>
+        <v>4320000</v>
       </c>
       <c r="F23" s="3">
-        <v>3064300</v>
+        <v>2999800</v>
       </c>
       <c r="G23" s="3">
-        <v>744700</v>
+        <v>729000</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1099,16 +1099,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-139400</v>
+        <v>-136500</v>
       </c>
       <c r="E24" s="3">
-        <v>1118800</v>
+        <v>1095200</v>
       </c>
       <c r="F24" s="3">
-        <v>284300</v>
+        <v>278300</v>
       </c>
       <c r="G24" s="3">
-        <v>154000</v>
+        <v>150700</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1153,16 +1153,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-121200</v>
+        <v>-118600</v>
       </c>
       <c r="E26" s="3">
-        <v>3294200</v>
+        <v>3224800</v>
       </c>
       <c r="F26" s="3">
-        <v>2780100</v>
+        <v>2721500</v>
       </c>
       <c r="G26" s="3">
-        <v>590700</v>
+        <v>578200</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1180,16 +1180,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-200200</v>
+        <v>-196000</v>
       </c>
       <c r="E27" s="3">
-        <v>3230000</v>
+        <v>3161900</v>
       </c>
       <c r="F27" s="3">
-        <v>2721000</v>
+        <v>2663700</v>
       </c>
       <c r="G27" s="3">
-        <v>531800</v>
+        <v>520600</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1234,16 +1234,16 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>44400</v>
+        <v>43400</v>
       </c>
       <c r="E29" s="3">
-        <v>611700</v>
+        <v>598800</v>
       </c>
       <c r="F29" s="3">
-        <v>202500</v>
+        <v>198200</v>
       </c>
       <c r="G29" s="3">
-        <v>-606500</v>
+        <v>-593800</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
@@ -1315,16 +1315,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-399300</v>
+        <v>-390900</v>
       </c>
       <c r="E32" s="3">
-        <v>-101000</v>
+        <v>-98900</v>
       </c>
       <c r="F32" s="3">
-        <v>-164700</v>
+        <v>-161300</v>
       </c>
       <c r="G32" s="3">
-        <v>16500</v>
+        <v>16100</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1342,16 +1342,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-155900</v>
+        <v>-152600</v>
       </c>
       <c r="E33" s="3">
-        <v>3841700</v>
+        <v>3760800</v>
       </c>
       <c r="F33" s="3">
-        <v>2923500</v>
+        <v>2861900</v>
       </c>
       <c r="G33" s="3">
-        <v>-74800</v>
+        <v>-73200</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1396,16 +1396,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-155900</v>
+        <v>-152600</v>
       </c>
       <c r="E35" s="3">
-        <v>3841700</v>
+        <v>3760800</v>
       </c>
       <c r="F35" s="3">
-        <v>2923500</v>
+        <v>2861900</v>
       </c>
       <c r="G35" s="3">
-        <v>-74800</v>
+        <v>-73200</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1481,16 +1481,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1130200</v>
+        <v>1106400</v>
       </c>
       <c r="E41" s="3">
-        <v>1329800</v>
+        <v>1301800</v>
       </c>
       <c r="F41" s="3">
-        <v>2027900</v>
+        <v>1985200</v>
       </c>
       <c r="G41" s="3">
-        <v>208600</v>
+        <v>204200</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2935100</v>
+        <v>6899100</v>
       </c>
       <c r="E43" s="3">
-        <v>2591900</v>
+        <v>2537300</v>
       </c>
       <c r="F43" s="3">
-        <v>1660400</v>
+        <v>1625400</v>
       </c>
       <c r="G43" s="3">
-        <v>1778400</v>
+        <v>1740900</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1562,16 +1562,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>500500</v>
+        <v>979800</v>
       </c>
       <c r="E44" s="3">
-        <v>337900</v>
+        <v>330700</v>
       </c>
       <c r="F44" s="3">
-        <v>297700</v>
+        <v>291400</v>
       </c>
       <c r="G44" s="3">
-        <v>220500</v>
+        <v>215900</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1589,16 +1589,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2741300</v>
+        <v>2683500</v>
       </c>
       <c r="E45" s="3">
-        <v>4531500</v>
+        <v>4436000</v>
       </c>
       <c r="F45" s="3">
-        <v>1743300</v>
+        <v>1706600</v>
       </c>
       <c r="G45" s="3">
-        <v>2197800</v>
+        <v>2151400</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1616,16 +1616,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7307000</v>
+        <v>7153100</v>
       </c>
       <c r="E46" s="3">
-        <v>8791000</v>
+        <v>8605800</v>
       </c>
       <c r="F46" s="3">
-        <v>5729300</v>
+        <v>5608600</v>
       </c>
       <c r="G46" s="3">
-        <v>4405300</v>
+        <v>4312400</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1643,16 +1643,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4092500</v>
+        <v>4048000</v>
       </c>
       <c r="E47" s="3">
-        <v>2688600</v>
+        <v>2631900</v>
       </c>
       <c r="F47" s="3">
-        <v>2936700</v>
+        <v>2874800</v>
       </c>
       <c r="G47" s="3">
-        <v>3544800</v>
+        <v>3470100</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1670,16 +1670,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19511200</v>
+        <v>38200300</v>
       </c>
       <c r="E48" s="3">
-        <v>18526300</v>
+        <v>18136000</v>
       </c>
       <c r="F48" s="3">
-        <v>16797200</v>
+        <v>16443300</v>
       </c>
       <c r="G48" s="3">
-        <v>16240100</v>
+        <v>15897900</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1697,16 +1697,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2484300</v>
+        <v>4863900</v>
       </c>
       <c r="E49" s="3">
-        <v>1429300</v>
+        <v>1399100</v>
       </c>
       <c r="F49" s="3">
-        <v>1066200</v>
+        <v>1043700</v>
       </c>
       <c r="G49" s="3">
-        <v>1395800</v>
+        <v>1366400</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1778,16 +1778,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>997500</v>
+        <v>976500</v>
       </c>
       <c r="E52" s="3">
-        <v>1212300</v>
+        <v>1186800</v>
       </c>
       <c r="F52" s="3">
-        <v>833600</v>
+        <v>816100</v>
       </c>
       <c r="G52" s="3">
-        <v>1067600</v>
+        <v>1045100</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1832,16 +1832,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>34392500</v>
+        <v>33709600</v>
       </c>
       <c r="E54" s="3">
-        <v>32647400</v>
+        <v>31959600</v>
       </c>
       <c r="F54" s="3">
-        <v>27363000</v>
+        <v>26786500</v>
       </c>
       <c r="G54" s="3">
-        <v>26653500</v>
+        <v>26091900</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1885,16 +1885,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>880300</v>
+        <v>4160000</v>
       </c>
       <c r="E57" s="3">
-        <v>1165500</v>
+        <v>1141000</v>
       </c>
       <c r="F57" s="3">
-        <v>549100</v>
+        <v>537600</v>
       </c>
       <c r="G57" s="3">
-        <v>523600</v>
+        <v>512600</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1912,16 +1912,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2307200</v>
+        <v>2258600</v>
       </c>
       <c r="E58" s="3">
-        <v>1509100</v>
+        <v>1477300</v>
       </c>
       <c r="F58" s="3">
-        <v>1188200</v>
+        <v>1163200</v>
       </c>
       <c r="G58" s="3">
-        <v>2492700</v>
+        <v>2440100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -1939,16 +1939,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2846100</v>
+        <v>2791100</v>
       </c>
       <c r="E59" s="3">
-        <v>3228700</v>
+        <v>3160700</v>
       </c>
       <c r="F59" s="3">
-        <v>2709900</v>
+        <v>2652800</v>
       </c>
       <c r="G59" s="3">
-        <v>3584100</v>
+        <v>3508500</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -1966,16 +1966,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6033600</v>
+        <v>5911500</v>
       </c>
       <c r="E60" s="3">
-        <v>5903300</v>
+        <v>5779000</v>
       </c>
       <c r="F60" s="3">
-        <v>4447200</v>
+        <v>4353500</v>
       </c>
       <c r="G60" s="3">
-        <v>6600400</v>
+        <v>6461300</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -1993,16 +1993,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9174400</v>
+        <v>8981100</v>
       </c>
       <c r="E61" s="3">
-        <v>9978600</v>
+        <v>9768400</v>
       </c>
       <c r="F61" s="3">
-        <v>10737800</v>
+        <v>10511600</v>
       </c>
       <c r="G61" s="3">
-        <v>10398800</v>
+        <v>10179700</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2020,16 +2020,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5098000</v>
+        <v>6254000</v>
       </c>
       <c r="E62" s="3">
-        <v>5139500</v>
+        <v>5031300</v>
       </c>
       <c r="F62" s="3">
-        <v>3711000</v>
+        <v>3632800</v>
       </c>
       <c r="G62" s="3">
-        <v>3419000</v>
+        <v>3347000</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2128,16 +2128,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21128600</v>
+        <v>20760900</v>
       </c>
       <c r="E66" s="3">
-        <v>21072900</v>
+        <v>20628900</v>
       </c>
       <c r="F66" s="3">
-        <v>18896100</v>
+        <v>18498000</v>
       </c>
       <c r="G66" s="3">
-        <v>20418200</v>
+        <v>19988100</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2276,16 +2276,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8544600</v>
+        <v>8328800</v>
       </c>
       <c r="E72" s="3">
-        <v>8397800</v>
+        <v>8220800</v>
       </c>
       <c r="F72" s="3">
-        <v>5031600</v>
+        <v>4925600</v>
       </c>
       <c r="G72" s="3">
-        <v>3113000</v>
+        <v>3047400</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2384,16 +2384,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13263900</v>
+        <v>12948600</v>
       </c>
       <c r="E76" s="3">
-        <v>11574500</v>
+        <v>11330600</v>
       </c>
       <c r="F76" s="3">
-        <v>8467000</v>
+        <v>8288600</v>
       </c>
       <c r="G76" s="3">
-        <v>6235200</v>
+        <v>6103900</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2470,16 +2470,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-155900</v>
+        <v>-152600</v>
       </c>
       <c r="E81" s="3">
-        <v>3841700</v>
+        <v>3760800</v>
       </c>
       <c r="F81" s="3">
-        <v>2923500</v>
+        <v>2861900</v>
       </c>
       <c r="G81" s="3">
-        <v>-74800</v>
+        <v>-73200</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2510,13 +2510,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>812000</v>
+        <v>794900</v>
       </c>
       <c r="E83" s="3">
-        <v>384200</v>
+        <v>376100</v>
       </c>
       <c r="F83" s="3">
-        <v>808400</v>
+        <v>791400</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2672,13 +2672,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1893300</v>
+        <v>1853500</v>
       </c>
       <c r="E89" s="3">
-        <v>2063000</v>
+        <v>2019600</v>
       </c>
       <c r="F89" s="3">
-        <v>2302900</v>
+        <v>2254400</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2712,13 +2712,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1875200</v>
+        <v>-1835700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1614000</v>
+        <v>-1580000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1248300</v>
+        <v>-1222000</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -2793,13 +2793,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3756800</v>
+        <v>-3677600</v>
       </c>
       <c r="E94" s="3">
-        <v>-944000</v>
+        <v>-924100</v>
       </c>
       <c r="F94" s="3">
-        <v>562300</v>
+        <v>550500</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -2833,13 +2833,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-601100</v>
+        <v>-588400</v>
       </c>
       <c r="E96" s="3">
-        <v>-642000</v>
+        <v>-628500</v>
       </c>
       <c r="F96" s="3">
-        <v>-1010500</v>
+        <v>-989300</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -2941,13 +2941,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1663800</v>
+        <v>1628800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1817200</v>
+        <v>-1778900</v>
       </c>
       <c r="F100" s="3">
-        <v>-1045900</v>
+        <v>-1023900</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -2995,13 +2995,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-199600</v>
+        <v>-195400</v>
       </c>
       <c r="E102" s="3">
-        <v>-698200</v>
+        <v>-683400</v>
       </c>
       <c r="F102" s="3">
-        <v>1819300</v>
+        <v>1781000</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
